--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H2">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.716394799951351</v>
+        <v>8.915438</v>
       </c>
       <c r="N2">
-        <v>8.716394799951351</v>
+        <v>17.830876</v>
       </c>
       <c r="O2">
-        <v>0.1357831169931408</v>
+        <v>0.1330966619879936</v>
       </c>
       <c r="P2">
-        <v>0.1357831169931408</v>
+        <v>0.1044454436141807</v>
       </c>
       <c r="Q2">
-        <v>37.77537211976734</v>
+        <v>41.18119268054401</v>
       </c>
       <c r="R2">
-        <v>37.77537211976734</v>
+        <v>247.087156083264</v>
       </c>
       <c r="S2">
-        <v>0.1357831169931408</v>
+        <v>0.1330966619879936</v>
       </c>
       <c r="T2">
-        <v>0.1357831169931408</v>
+        <v>0.1044454436141807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H3">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.7556810459661</v>
+        <v>28.70072166666667</v>
       </c>
       <c r="N3">
-        <v>26.7556810459661</v>
+        <v>86.10216500000001</v>
       </c>
       <c r="O3">
-        <v>0.4167972944176245</v>
+        <v>0.42846691889729</v>
       </c>
       <c r="P3">
-        <v>0.4167972944176245</v>
+        <v>0.5043486825642434</v>
       </c>
       <c r="Q3">
-        <v>115.9545696386786</v>
+        <v>132.57115904184</v>
       </c>
       <c r="R3">
-        <v>115.9545696386786</v>
+        <v>1193.14043137656</v>
       </c>
       <c r="S3">
-        <v>0.4167972944176245</v>
+        <v>0.42846691889729</v>
       </c>
       <c r="T3">
-        <v>0.4167972944176245</v>
+        <v>0.5043486825642434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H4">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168645738362234</v>
+        <v>0.2432513333333333</v>
       </c>
       <c r="N4">
-        <v>0.168645738362234</v>
+        <v>0.729754</v>
       </c>
       <c r="O4">
-        <v>0.002627146262645382</v>
+        <v>0.003631446990130538</v>
       </c>
       <c r="P4">
-        <v>0.002627146262645382</v>
+        <v>0.004274578560202137</v>
       </c>
       <c r="Q4">
-        <v>0.7308819379179416</v>
+        <v>1.123599314784</v>
       </c>
       <c r="R4">
-        <v>0.7308819379179416</v>
+        <v>10.112393833056</v>
       </c>
       <c r="S4">
-        <v>0.002627146262645382</v>
+        <v>0.003631446990130538</v>
       </c>
       <c r="T4">
-        <v>0.002627146262645382</v>
+        <v>0.004274578560202137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H5">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.266267991062722</v>
+        <v>0.2705943333333333</v>
       </c>
       <c r="N5">
-        <v>0.266267991062722</v>
+        <v>0.8117829999999999</v>
       </c>
       <c r="O5">
-        <v>0.004147895845906376</v>
+        <v>0.004039644773429317</v>
       </c>
       <c r="P5">
-        <v>0.004147895845906376</v>
+        <v>0.004755068430370469</v>
       </c>
       <c r="Q5">
-        <v>1.153960172390694</v>
+        <v>1.249899037968</v>
       </c>
       <c r="R5">
-        <v>1.153960172390694</v>
+        <v>11.249091341712</v>
       </c>
       <c r="S5">
-        <v>0.004147895845906376</v>
+        <v>0.004039644773429317</v>
       </c>
       <c r="T5">
-        <v>0.004147895845906376</v>
+        <v>0.004755068430370469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H6">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.04301767391292</v>
+        <v>7.535582333333333</v>
       </c>
       <c r="N6">
-        <v>7.04301767391292</v>
+        <v>22.606747</v>
       </c>
       <c r="O6">
-        <v>0.1097154172969556</v>
+        <v>0.1124970926501157</v>
       </c>
       <c r="P6">
-        <v>0.1097154172969556</v>
+        <v>0.1324203992607289</v>
       </c>
       <c r="Q6">
-        <v>30.52324035157789</v>
+        <v>34.80751792891201</v>
       </c>
       <c r="R6">
-        <v>30.52324035157789</v>
+        <v>313.267661360208</v>
       </c>
       <c r="S6">
-        <v>0.1097154172969556</v>
+        <v>0.1124970926501157</v>
       </c>
       <c r="T6">
-        <v>0.1097154172969556</v>
+        <v>0.1324203992607289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.33382986736422</v>
+        <v>4.619088000000001</v>
       </c>
       <c r="H7">
-        <v>4.33382986736422</v>
+        <v>13.857264</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.243502172035</v>
+        <v>21.3190975</v>
       </c>
       <c r="N7">
-        <v>21.243502172035</v>
+        <v>42.638195</v>
       </c>
       <c r="O7">
-        <v>0.3309291291837272</v>
+        <v>0.3182682347010409</v>
       </c>
       <c r="P7">
-        <v>0.3309291291837272</v>
+        <v>0.2497558275702743</v>
       </c>
       <c r="Q7">
-        <v>92.06572420058197</v>
+        <v>98.47478743308</v>
       </c>
       <c r="R7">
-        <v>92.06572420058197</v>
+        <v>590.84872459848</v>
       </c>
       <c r="S7">
-        <v>0.3309291291837272</v>
+        <v>0.3182682347010409</v>
       </c>
       <c r="T7">
-        <v>0.3309291291837272</v>
+        <v>0.2497558275702743</v>
       </c>
     </row>
   </sheetData>
